--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\playwright-shop-scraper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\web-scraper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D38E66-A815-42D5-B759-661D1EB69ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459EB394-F011-45DB-A9DB-524D085BC287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{A2897EBF-7604-4AF1-8E71-4A628F0CD4D5}"/>
+    <workbookView xWindow="5970" yWindow="2370" windowWidth="28800" windowHeight="15285" xr2:uid="{A2897EBF-7604-4AF1-8E71-4A628F0CD4D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>URL</t>
   </si>
   <si>
     <t>product name</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/716852/quorn-pieces-frozen</t>
+  </si>
+  <si>
+    <t>Quorn Pieces Frozen 300g</t>
+  </si>
+  <si>
+    <t>Made With Plants Meat Free Bacon 200g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/6050692/made-with-plants-meat-free-bacon</t>
+  </si>
+  <si>
+    <t>Moccona Freeze Dried Instant Coffee Classic Medium Roast 400g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/208575/moccona-freeze-dried-instant-coffee-classic-medium-roast</t>
+  </si>
+  <si>
+    <t>Simson Pantry Low Carb High Protein + Fibre Large Wraps 6 pack</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/240473/simson-s-pantry-low-carb-high-protein-fibre-large-wraps</t>
+  </si>
+  <si>
+    <t>Twinings Live Well Cleanse Tea Bags 18 pack</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/226882/twinings-live-well-cleanse-tea-bags</t>
+  </si>
+  <si>
+    <t>Vitasoy Soy Milky Lite Long Life Milk UHT 1L</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/212841/vitasoy-soy-milky-lite-long-life-milk-uht</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/326615/neutrogena-ultra-gentle-foaming-face-cleanser</t>
+  </si>
+  <si>
+    <t>Neutrogena Ultra Gentle Foaming Face Cleanser 200mL</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/345982/finish-dishwasher-deep-cleaner-lemon</t>
+  </si>
+  <si>
+    <t>Finish Dishwasher Deep Cleaner Lemon 250mL</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/779653/olay-regenerist-micro-sculpting-night-face-cream-moisturiser</t>
+  </si>
+  <si>
+    <t>Olay Regenerist Micro Sculpting Night Face Cream Moisturiser 50g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/335073/macro-organic-quinoa</t>
+  </si>
+  <si>
+    <t>Macro Organic Quinoa 500g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/499695/macro-white-quinoa</t>
+  </si>
+  <si>
+    <t>Macro White Quinoa 1kg</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/65575/suntory-boss-coffee-iced-latte</t>
+  </si>
+  <si>
+    <t>Suntory Boss Coffee Iced Latte 237mL</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/780717/woolworths-creamed-cottage-cheese</t>
+  </si>
+  <si>
+    <t>Woolworths Creamed Cottage Cheese 500g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/214005/meliora-plant-based-ham-style-slices</t>
+  </si>
+  <si>
+    <t>YoPRO High Protein Yoghurt Vanilla 700g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/867015/yopro-high-protein-yoghurt-vanilla</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/204716/yopro-high-protein-yoghurt-salted-caramel</t>
+  </si>
+  <si>
+    <t>YoPRO High Protein Yoghurt Salted Caramel 700g</t>
+  </si>
+  <si>
+    <t>Woolworths Light Tasty Shredded Cheese 500g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/729008/woolworths-light-tasty-shredded-cheese</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/65255/unreal-co-plant-based-beefy-brat-sausages</t>
+  </si>
+  <si>
+    <t>Unreal Co. Plant Based Beefy Brat Sausages 350g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/65254/unreal-co-plant-based-chick-n-chives-sausages</t>
+  </si>
+  <si>
+    <t>Unreal Co. Plant Based Chick'N Chives Sausages 350g</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/258415/olay-moisturising-lotion-complete-defence-sensitive-spf-30</t>
+  </si>
+  <si>
+    <t>Olay Moisturising Lotion Complete Defence Sensitive SPF 30 75mL</t>
+  </si>
+  <si>
+    <t>https://www.woolworths.com.au/shop/productdetails/829467/finish-concentrated-lemon-sparkle-dishwashing-powder</t>
+  </si>
+  <si>
+    <t>Finish Concentrated Lemon Sparkle Dishwashing Powder 2kg</t>
+  </si>
+  <si>
+    <t>Meliora Plant Based Ham Style Slices</t>
   </si>
 </sst>
 </file>
@@ -433,7 +559,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,69 +577,196 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="1"/>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{798FE4D7-0F00-4620-84BA-E01F6D8631CF}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{E1610668-28FE-43B6-9758-477453A55D65}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{31B84F1E-8CFC-4112-B4AC-A0E8AE3C167B}"/>
+    <hyperlink ref="A9" r:id="rId4" xr:uid="{3039651B-4C0B-4D4E-8145-5752FFDCBC0C}"/>
+    <hyperlink ref="A10" r:id="rId5" xr:uid="{565D605D-E8EF-405C-B728-362477225C9A}"/>
+    <hyperlink ref="A11" r:id="rId6" xr:uid="{84CC597E-F704-4C8A-8F5A-2976C5B96D6F}"/>
+    <hyperlink ref="A13" r:id="rId7" xr:uid="{51377B7C-16C8-4A37-84A2-F8F61EB2088A}"/>
+    <hyperlink ref="A15" r:id="rId8" xr:uid="{C521DD4B-CD7A-40D2-B5D9-1AC3CBE4C30C}"/>
+    <hyperlink ref="A16" r:id="rId9" xr:uid="{2B2712D9-0461-4C0C-864A-CE2E5191C2BC}"/>
+    <hyperlink ref="A18" r:id="rId10" xr:uid="{7C74D24E-3744-4CE2-8997-0FCE28226C7F}"/>
+    <hyperlink ref="A19" r:id="rId11" xr:uid="{DBEA77C6-25E4-4C21-8C2F-9ED9E88C95B6}"/>
+    <hyperlink ref="A20" r:id="rId12" xr:uid="{C42A990F-C569-4B2F-B41D-AFE427B2BE4A}"/>
+    <hyperlink ref="A21" r:id="rId13" xr:uid="{B4903BE2-E3D9-4020-AAAD-531584FADD8D}"/>
+    <hyperlink ref="A22" r:id="rId14" xr:uid="{04B87A7D-9DC2-414D-BD36-1523847D740C}"/>
+    <hyperlink ref="A3" r:id="rId15" xr:uid="{6DDE23C0-42BF-462D-9F84-A9D6BA3C0BF0}"/>
+    <hyperlink ref="A7" r:id="rId16" xr:uid="{5B05B678-37BB-40C3-AAA8-440852A79325}"/>
+    <hyperlink ref="A8" r:id="rId17" xr:uid="{3F63AD32-AC0E-4264-97DC-B27B285C50C1}"/>
+    <hyperlink ref="A12" r:id="rId18" xr:uid="{DA3DF7C1-E4D6-455F-BB10-4184FE40BF7B}"/>
+    <hyperlink ref="A14" r:id="rId19" xr:uid="{21D6C7AD-EECF-4C51-B9F4-84BCFB927DF1}"/>
+    <hyperlink ref="A17" r:id="rId20" xr:uid="{0FE9FDC3-0CA7-419B-8CE6-2402D24A7A84}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>